--- a/uploads/1_new_697.xlsx
+++ b/uploads/1_new_697.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ريد بل - 250 مل</t>
+    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,16 +429,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5151</v>
+        <v>11960</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1203</v>
+        <v>54.75</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/uploads/1_new_697.xlsx
+++ b/uploads/1_new_697.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
+    <t>كوفى ميكس بونجورنو ظرف - 12 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,18 +429,35 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11960</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1704</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>54.75</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/uploads/1_new_697.xlsx
+++ b/uploads/1_new_697.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كوفى ميكس بونجورنو ظرف - 12 جم</t>
+    <t>بيبسى كانز ستار زيادة %10- 355 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,35 +429,18 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>59</v>
+        <v>25899</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1704</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
